--- a/results/I3_N5_M3_T30_C150_DepCentral_s2_P5_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s2_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.9790434521042</v>
+        <v>1776.609827157087</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.7290434521012</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16.62778373515295</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.134510687494965</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.99000000000298</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.26000000000001</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11.95858503259002</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.66483080554379</v>
+        <v>11.29375422704624</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>25.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.99312545677591</v>
+        <v>22.17869683315583</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.27636021569352</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.51673143700226</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.45653196483993</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,216 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.97499999999985</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.46999999999986</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>35.41999999999985</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.46999999999986</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>152.2400000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.0150000000004</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.1550000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>152.2950000000004</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3900000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16999999999935</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999935</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.85999999999935</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999935</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3399999999997</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4299999999997</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.995</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>52.23500000000072</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>44.35</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>44.52500000000073</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>45.78500000000072</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>50.8</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>152.2400000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>150.0150000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>153.1550000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>152.2950000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>155.3900000000004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.204999999999671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1582,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.994999999999635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.240000000000437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01500000000043656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3.155000000000437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>2.295000000000436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.390000000000437</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,7 +2364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2110,10 +2375,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2121,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2132,12 +2397,89 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
